--- a/HIPOTESES.xlsx
+++ b/HIPOTESES.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\ProjetosPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0A58D0-F19A-4565-9847-063F358EA223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A04AAC-269E-4E6F-BEDB-F3E29BA33716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFE4666F-66AA-47B4-B4D1-4475D501A3D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$840</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4092" uniqueCount="2129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4140" uniqueCount="2176">
   <si>
     <t>TIPO</t>
   </si>
@@ -6435,13 +6438,154 @@
   </si>
   <si>
     <t>TENDINITE NO TORNOZELO ESQUERDO E DIRETO</t>
+  </si>
+  <si>
+    <t>RMCOTOVDIR</t>
+  </si>
+  <si>
+    <t>Ressonância magnética, cotovelo, direito</t>
+  </si>
+  <si>
+    <t>RMCOTOVESQ</t>
+  </si>
+  <si>
+    <t>Ressonância magnética, cotovelo, esquerdo</t>
+  </si>
+  <si>
+    <t>RMJOELHODIR</t>
+  </si>
+  <si>
+    <t>RMJOELHOESQ</t>
+  </si>
+  <si>
+    <t>RMMAODIR</t>
+  </si>
+  <si>
+    <t>RMMAOESQ</t>
+  </si>
+  <si>
+    <t>RMOMBRODIR</t>
+  </si>
+  <si>
+    <t>RMOMBROESQ</t>
+  </si>
+  <si>
+    <t>RMPERNADIR</t>
+  </si>
+  <si>
+    <t>RMPERNAESQ</t>
+  </si>
+  <si>
+    <t>RMPUNHODIR</t>
+  </si>
+  <si>
+    <t>RMPUNHOESQ</t>
+  </si>
+  <si>
+    <t>RMQUADRILDIR</t>
+  </si>
+  <si>
+    <t>RMQUADRILESQ</t>
+  </si>
+  <si>
+    <t>RMTORNODIR</t>
+  </si>
+  <si>
+    <t>RMTORNOESQ</t>
+  </si>
+  <si>
+    <t>Ressonância magnética, joelho, direito</t>
+  </si>
+  <si>
+    <t>Ressonância magnética, joelho, esquerdo</t>
+  </si>
+  <si>
+    <t>Ressonância magnética, mão, direita</t>
+  </si>
+  <si>
+    <t>Ressonância magnética, mão, esquerda</t>
+  </si>
+  <si>
+    <t>Ressonância magnética, ombro, direito</t>
+  </si>
+  <si>
+    <t>Ressonância magnética, ombro, esquerdo</t>
+  </si>
+  <si>
+    <t>Ressonância magnética, perna, direita</t>
+  </si>
+  <si>
+    <t>Ressonância magnética, perna, esquerda</t>
+  </si>
+  <si>
+    <t>Ressonância magnética, punho, direito</t>
+  </si>
+  <si>
+    <t>Ressonância magnética, punho, esquerdo</t>
+  </si>
+  <si>
+    <t>Ressonância magnética, quadril, direito</t>
+  </si>
+  <si>
+    <t>Ressonância magnética, quadril, esquerdo</t>
+  </si>
+  <si>
+    <t>Ressonância magnética, tornozelo, direito</t>
+  </si>
+  <si>
+    <t>Ressonância magnética, tornozelo, esquerdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESSONÂNCIA MAGNÉTICA DE COTOVELO DIREITO PARA AVALIAÇÃO AFECÇÕES INFLAMATÓRIAS E LESÕES MUSCULARES  </t>
+  </si>
+  <si>
+    <t>RESSONÂNCIA MAGNÉTICA DE JOELHO DIREITO PARA AVALIAÇÃO DE FRATURAS E  AFECÇÕES INFLAMATÓRIAS INFECCIOSAS</t>
+  </si>
+  <si>
+    <t>RESSONÂNCIA MAGNÉTICA DE JOELHO ESQUERDO PARA AVALIAÇÃO DE FRATURAS E  AFECÇÕES INFLAMATÓRIAS INFECCIOSAS</t>
+  </si>
+  <si>
+    <t>Avaliar em detalhe as estruturas da mão esquerda, incluindo ossos, cartilagens, ligamentos, tendões, músculos e nervos</t>
+  </si>
+  <si>
+    <t>Avaliar em detalhe as estruturas da mão direita , incluindo ossos, cartilagens, ligamentos, tendões, músculos e nervos</t>
+  </si>
+  <si>
+    <t>RESSONÂNCIA MAGNÉTICA DE OMBRO DIREITO PARA AVALIAÇÃO DE FRATURAS E TENDINITE LIGAMENTAR AGUDA</t>
+  </si>
+  <si>
+    <t>RESSONÂNCIA MAGNÉTICA DE OMBRO ESQUERDO PARA AVALIAÇÃO DE FRATURAS E TENDINITE LIGAMENTAR AGUDA</t>
+  </si>
+  <si>
+    <t>RESSONÂNCIA MAGNÉTICA DE PERNA DIREITA PARA AVALIAÇÃO DE  ESPAÇO ARTICULAR E LESÃO MUSCULAR GRAVE     </t>
+  </si>
+  <si>
+    <t>RESSONÂNCIA MAGNÉTICA DE PERNA ESQUERDA PARA AVALIAÇÃO DE  ESPAÇO ARTICULAR E LESÃO MUSCULAR GRAVE     </t>
+  </si>
+  <si>
+    <t>RESSONANCIA MAGNÉTICA DE PUNHO DIREITO PARA AVALIAÇÃO DE LESÃO/FRATURAS</t>
+  </si>
+  <si>
+    <t>RESSONANCIA MAGNÉTICA DE PUNHO ESQUERDO PARA AVALIAÇÃO DE LESÃO/FRATURAS</t>
+  </si>
+  <si>
+    <t>RESSONÂNCIA MAGNÉTICA DE QUADRIL DIREITO PARA AVALIAÇÃO DE AFECÇÕES INFLAMATÓRIAS E LESÕES DO LÁBRUM ACETABULAR</t>
+  </si>
+  <si>
+    <t>RESSONÂNCIA MAGNÉTICA DE QUADRIL ESQUERDO PARA AVALIAÇÃO DE AFECÇÕES INFLAMATÓRIAS E LESÕES DO LÁBRUM ACETABULAR</t>
+  </si>
+  <si>
+    <t>TENDINITE NO TORNOZELO DIREITO</t>
+  </si>
+  <si>
+    <t>TENDINITE NO TORNOZELO ESQUERDO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6534,6 +6678,27 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -6598,7 +6763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -6621,6 +6786,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7297,10 +7465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F598A03-C175-48A4-8B4B-F3666B999AEE}">
-  <dimension ref="A1:F822"/>
+  <dimension ref="A1:F872"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C388" workbookViewId="0">
-      <selection activeCell="F415" sqref="F415"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22073,11 +22241,311 @@
         <v>2125</v>
       </c>
     </row>
+    <row r="823" spans="1:6">
+      <c r="A823" s="21" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B823" s="20" t="s">
+        <v>2130</v>
+      </c>
+      <c r="F823" s="3" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6">
+      <c r="A824" s="21" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B824" s="20" t="s">
+        <v>2132</v>
+      </c>
+      <c r="F824" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6">
+      <c r="A825" s="21" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B825" s="20" t="s">
+        <v>2147</v>
+      </c>
+      <c r="F825" s="3" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6">
+      <c r="A826" s="21" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B826" s="20" t="s">
+        <v>2148</v>
+      </c>
+      <c r="F826" s="3" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6">
+      <c r="A827" s="21" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B827" s="20" t="s">
+        <v>2149</v>
+      </c>
+      <c r="F827" s="3" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6">
+      <c r="A828" s="21" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B828" s="20" t="s">
+        <v>2150</v>
+      </c>
+      <c r="F828" s="3" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6">
+      <c r="A829" s="21" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B829" s="20" t="s">
+        <v>2151</v>
+      </c>
+      <c r="F829" s="3" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6">
+      <c r="A830" s="21" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B830" s="20" t="s">
+        <v>2152</v>
+      </c>
+      <c r="F830" s="3" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6">
+      <c r="A831" s="21" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B831" s="20" t="s">
+        <v>2153</v>
+      </c>
+      <c r="F831" s="3" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6">
+      <c r="A832" s="21" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B832" s="20" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F832" s="3" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6">
+      <c r="A833" s="21" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B833" s="20" t="s">
+        <v>2155</v>
+      </c>
+      <c r="F833" s="3" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6">
+      <c r="A834" s="21" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B834" s="20" t="s">
+        <v>2156</v>
+      </c>
+      <c r="F834" s="3" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6">
+      <c r="A835" s="21" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B835" s="20" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F835" s="16" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6">
+      <c r="A836" s="21" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B836" s="20" t="s">
+        <v>2158</v>
+      </c>
+      <c r="F836" s="16" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6">
+      <c r="A837" s="21" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B837" s="20" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F837" s="3" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6">
+      <c r="A838" s="21" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B838" s="20" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F838" s="3" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6">
+      <c r="A839" s="21"/>
+      <c r="B839" s="20"/>
+    </row>
+    <row r="840" spans="1:6">
+      <c r="A840" s="21"/>
+      <c r="B840" s="20"/>
+    </row>
+    <row r="841" spans="1:6">
+      <c r="A841" s="21"/>
+      <c r="B841" s="20"/>
+    </row>
+    <row r="842" spans="1:6">
+      <c r="A842" s="21"/>
+      <c r="B842" s="20"/>
+    </row>
+    <row r="843" spans="1:6">
+      <c r="A843" s="21"/>
+      <c r="B843" s="20"/>
+    </row>
+    <row r="844" spans="1:6">
+      <c r="A844" s="21"/>
+      <c r="B844" s="20"/>
+    </row>
+    <row r="845" spans="1:6">
+      <c r="A845" s="21"/>
+      <c r="B845" s="20"/>
+    </row>
+    <row r="846" spans="1:6">
+      <c r="A846" s="21"/>
+      <c r="B846" s="20"/>
+    </row>
+    <row r="847" spans="1:6">
+      <c r="A847" s="21"/>
+      <c r="B847" s="20"/>
+    </row>
+    <row r="848" spans="1:6">
+      <c r="A848" s="21"/>
+      <c r="B848" s="20"/>
+    </row>
+    <row r="849" spans="1:2">
+      <c r="A849" s="21"/>
+      <c r="B849" s="20"/>
+    </row>
+    <row r="850" spans="1:2">
+      <c r="A850" s="21"/>
+      <c r="B850" s="20"/>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="A851" s="21"/>
+      <c r="B851" s="20"/>
+    </row>
+    <row r="852" spans="1:2">
+      <c r="A852" s="21"/>
+      <c r="B852" s="20"/>
+    </row>
+    <row r="853" spans="1:2">
+      <c r="A853" s="21"/>
+      <c r="B853" s="20"/>
+    </row>
+    <row r="854" spans="1:2">
+      <c r="A854" s="22"/>
+      <c r="B854" s="20"/>
+    </row>
+    <row r="855" spans="1:2">
+      <c r="A855" s="22"/>
+      <c r="B855" s="20"/>
+    </row>
+    <row r="856" spans="1:2">
+      <c r="A856" s="22"/>
+      <c r="B856" s="20"/>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" s="22"/>
+      <c r="B857" s="20"/>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="A858" s="22"/>
+      <c r="B858" s="20"/>
+    </row>
+    <row r="859" spans="1:2">
+      <c r="A859" s="22"/>
+      <c r="B859" s="20"/>
+    </row>
+    <row r="860" spans="1:2">
+      <c r="A860" s="22"/>
+    </row>
+    <row r="861" spans="1:2">
+      <c r="A861" s="22"/>
+    </row>
+    <row r="862" spans="1:2">
+      <c r="A862" s="22"/>
+    </row>
+    <row r="863" spans="1:2">
+      <c r="A863" s="22"/>
+    </row>
+    <row r="864" spans="1:2">
+      <c r="A864" s="22"/>
+    </row>
+    <row r="865" spans="1:1">
+      <c r="A865" s="22"/>
+    </row>
+    <row r="866" spans="1:1">
+      <c r="A866" s="22"/>
+    </row>
+    <row r="867" spans="1:1">
+      <c r="A867" s="22"/>
+    </row>
+    <row r="868" spans="1:1">
+      <c r="A868" s="22"/>
+    </row>
+    <row r="869" spans="1:1">
+      <c r="A869" s="22"/>
+    </row>
+    <row r="870" spans="1:1">
+      <c r="A870" s="22"/>
+    </row>
+    <row r="871" spans="1:1">
+      <c r="A871" s="22"/>
+    </row>
+    <row r="872" spans="1:1">
+      <c r="A872" s="22"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 *** Este documento está classificado como INTERNO pelo GRUPO FLEURY ***</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/HIPOTESES.xlsx
+++ b/HIPOTESES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\ProjetosPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46A8A7D-EB41-4A32-9225-F579E6BC2CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AC1919-90C0-40CD-83E7-F0D4EFC001B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFE4666F-66AA-47B4-B4D1-4475D501A3D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4143" uniqueCount="2176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4146" uniqueCount="2179">
   <si>
     <t>TIPO</t>
   </si>
@@ -6579,13 +6579,22 @@
   </si>
   <si>
     <t>RESSONÂNCIA MAGNÉTICA DE CORAÇÃO PARA AVALIAÇÃO DA FUNÇÃO MIOCÁRDICA / INFARTO</t>
+  </si>
+  <si>
+    <t>ECOBIDO</t>
+  </si>
+  <si>
+    <t>Ecocardiograma bidimensional, com doppler </t>
+  </si>
+  <si>
+    <t>PARA INVESTIGAÇÃO E  AVALIAÇÃO ENDOCARDITE INFECCIOSA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6699,6 +6708,13 @@
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -6763,7 +6779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -6789,6 +6805,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7467,8 +7487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F598A03-C175-48A4-8B4B-F3666B999AEE}">
   <dimension ref="A1:F872"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A345" sqref="A345"/>
+    <sheetView tabSelected="1" topLeftCell="A823" workbookViewId="0">
+      <selection activeCell="A839" sqref="A839"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22424,8 +22444,15 @@
       </c>
     </row>
     <row r="839" spans="1:6">
-      <c r="A839" s="21"/>
-      <c r="B839" s="20"/>
+      <c r="A839" s="23" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B839" s="24" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F839" s="20" t="s">
+        <v>2178</v>
+      </c>
     </row>
     <row r="840" spans="1:6">
       <c r="A840" s="21"/>
@@ -22451,7 +22478,7 @@
       <c r="A845" s="21"/>
       <c r="B845" s="20"/>
     </row>
-    <row r="846" spans="1:6">
+    <row r="846" spans="1:6" ht="11.25" customHeight="1">
       <c r="A846" s="21"/>
       <c r="B846" s="20"/>
     </row>

--- a/HIPOTESES.xlsx
+++ b/HIPOTESES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\ProjetosPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63295828-C68D-4724-972E-5AD1CDE18EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A8804F-43FB-4F5D-A2E7-89C6C00C85E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFE4666F-66AA-47B4-B4D1-4475D501A3D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4146" uniqueCount="2182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4149" uniqueCount="2185">
   <si>
     <t>TIPO</t>
   </si>
@@ -6597,6 +6597,15 @@
   </si>
   <si>
     <t>Ultrassonografia, com doppler venoso de, membro Inferior  --- VARIZES</t>
+  </si>
+  <si>
+    <t>HOLTERF</t>
+  </si>
+  <si>
+    <t>Holter sem fio 24 hrs</t>
+  </si>
+  <si>
+    <t>HOLTER SEM FIO 24 HORAS -  INVESTIGAÇÃO DE ARRITMIA CARDÍACA E ACIDENTES VASCULARES CEREBRAIS</t>
   </si>
 </sst>
 </file>
@@ -6788,7 +6797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -6818,6 +6827,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7496,8 +7506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F598A03-C175-48A4-8B4B-F3666B999AEE}">
   <dimension ref="A1:F872"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A820" workbookViewId="0">
+      <selection activeCell="A840" sqref="A840"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22464,8 +22474,15 @@
       </c>
     </row>
     <row r="840" spans="1:6">
-      <c r="A840" s="21"/>
-      <c r="B840" s="20"/>
+      <c r="A840" s="21" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B840" s="20" t="s">
+        <v>2183</v>
+      </c>
+      <c r="F840" s="25" t="s">
+        <v>2184</v>
+      </c>
     </row>
     <row r="841" spans="1:6">
       <c r="A841" s="21"/>

--- a/HIPOTESES.xlsx
+++ b/HIPOTESES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\ProjetosPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A8804F-43FB-4F5D-A2E7-89C6C00C85E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E60ABD-D1BD-4D57-8817-0E2074D5409A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFE4666F-66AA-47B4-B4D1-4475D501A3D6}"/>
   </bookViews>
@@ -6557,9 +6557,6 @@
     <t>Ecocardiograma bidimensional, com doppler </t>
   </si>
   <si>
-    <t>PARA INVESTIGAÇÃO E  AVALIAÇÃO ENDOCARDITE INFECCIOSA</t>
-  </si>
-  <si>
     <t>RESSONÂNCIA MAGNÉTICA ABDÔMEN TOTAL FEMININO PARA INVESTIGAÇÃO DE CISTOS ABDOMINAIS E OVARIANOS / CID 10 - N83.2 /  AVALIAR LINFONODOS EM REGIÃO ABDOMINAL</t>
   </si>
   <si>
@@ -6606,6 +6603,9 @@
   </si>
   <si>
     <t>HOLTER SEM FIO 24 HORAS -  INVESTIGAÇÃO DE ARRITMIA CARDÍACA E ACIDENTES VASCULARES CEREBRAIS</t>
+  </si>
+  <si>
+    <t>Ecocardiograma bidimensional, com doppler --- PARA INVESTIGAÇÃO E  AVALIAÇÃO ENDOCARDITE INFECCIOSA</t>
   </si>
 </sst>
 </file>
@@ -6797,7 +6797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -6827,7 +6827,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7506,8 +7505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F598A03-C175-48A4-8B4B-F3666B999AEE}">
   <dimension ref="A1:F872"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A820" workbookViewId="0">
-      <selection activeCell="A840" sqref="A840"/>
+    <sheetView tabSelected="1" topLeftCell="A822" workbookViewId="0">
+      <selection activeCell="F839" sqref="F839"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12881,7 +12880,7 @@
         <v>794</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -13405,7 +13404,7 @@
         <v>874</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -13443,7 +13442,7 @@
         <v>878</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -13551,7 +13550,7 @@
       </c>
       <c r="E336" s="6"/>
       <c r="F336" s="3" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -13563,7 +13562,7 @@
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
       <c r="F337" s="3" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -14229,7 +14228,7 @@
       </c>
       <c r="E374" s="3"/>
       <c r="F374" s="3" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -14247,7 +14246,7 @@
       </c>
       <c r="E375" s="3"/>
       <c r="F375" s="3" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -14823,7 +14822,7 @@
         <v>1066</v>
       </c>
       <c r="F407" s="3" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -20951,7 +20950,7 @@
       </c>
       <c r="E748" s="3"/>
       <c r="F748" s="3" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="749" spans="1:6">
@@ -20969,7 +20968,7 @@
       </c>
       <c r="E749" s="3"/>
       <c r="F749" s="3" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="750" spans="1:6">
@@ -22229,7 +22228,7 @@
       </c>
       <c r="E819" s="3"/>
       <c r="F819" s="3" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="820" spans="1:6">
@@ -22338,7 +22337,7 @@
         <v>2140</v>
       </c>
       <c r="F827" s="3" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="828" spans="1:6">
@@ -22349,7 +22348,7 @@
         <v>2141</v>
       </c>
       <c r="F828" s="3" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="829" spans="1:6">
@@ -22470,18 +22469,18 @@
         <v>2167</v>
       </c>
       <c r="F839" s="20" t="s">
-        <v>2168</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="840" spans="1:6">
       <c r="A840" s="21" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B840" s="20" t="s">
         <v>2182</v>
       </c>
-      <c r="B840" s="20" t="s">
+      <c r="F840" s="4" t="s">
         <v>2183</v>
-      </c>
-      <c r="F840" s="25" t="s">
-        <v>2184</v>
       </c>
     </row>
     <row r="841" spans="1:6">

--- a/HIPOTESES.xlsx
+++ b/HIPOTESES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\ProjetosPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E60ABD-D1BD-4D57-8817-0E2074D5409A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CECBC6-B662-4632-A0C6-FD723B1D2B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFE4666F-66AA-47B4-B4D1-4475D501A3D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4149" uniqueCount="2185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4149" uniqueCount="2190">
   <si>
     <t>TIPO</t>
   </si>
@@ -6100,9 +6100,6 @@
     <t>Ultrassonografia, perna</t>
   </si>
   <si>
-    <t xml:space="preserve">VARIZES </t>
-  </si>
-  <si>
     <t>USPERNAS</t>
   </si>
   <si>
@@ -6164,9 +6161,6 @@
   </si>
   <si>
     <t>Ultrassonografia, próstata, por via abdominal</t>
-  </si>
-  <si>
-    <t>CALCULO VESICAL</t>
   </si>
   <si>
     <t>USPROST3</t>
@@ -6606,6 +6600,27 @@
   </si>
   <si>
     <t>Ecocardiograma bidimensional, com doppler --- PARA INVESTIGAÇÃO E  AVALIAÇÃO ENDOCARDITE INFECCIOSA</t>
+  </si>
+  <si>
+    <t>Ultrassonografia, punho DIREITO OU ESQUERDO -- TENDINITE</t>
+  </si>
+  <si>
+    <t>Ultrassonografia, com Doppler, punho direito ou esquerdo -- TENDINITE</t>
+  </si>
+  <si>
+    <t>Ultrassonografia, punhos DIREITO E ESQUERDO -- TENDINITE</t>
+  </si>
+  <si>
+    <t>Ultrassonografia, pescoço NODULO NA TIREÓIDE</t>
+  </si>
+  <si>
+    <t>Ultrassonografia, próstata, por via abdominal CALCULO VESICAL</t>
+  </si>
+  <si>
+    <t>Ultrassonografia, pernas  DIREITA E ESQUERDA -- VARIZES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultrassonografia, perna direita ou esquerda --  VARIZES </t>
   </si>
 </sst>
 </file>
@@ -7505,8 +7520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F598A03-C175-48A4-8B4B-F3666B999AEE}">
   <dimension ref="A1:F872"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A822" workbookViewId="0">
-      <selection activeCell="F839" sqref="F839"/>
+    <sheetView tabSelected="1" topLeftCell="A762" workbookViewId="0">
+      <selection activeCell="A785" sqref="A785"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7521,10 +7536,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -12880,7 +12895,7 @@
         <v>794</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -13404,7 +13419,7 @@
         <v>874</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -13442,7 +13457,7 @@
         <v>878</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -13550,7 +13565,7 @@
       </c>
       <c r="E336" s="6"/>
       <c r="F336" s="3" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -13562,7 +13577,7 @@
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
       <c r="F337" s="3" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -13706,7 +13721,7 @@
       </c>
       <c r="E345" s="3"/>
       <c r="F345" s="3" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -14228,7 +14243,7 @@
       </c>
       <c r="E374" s="3"/>
       <c r="F374" s="3" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -14246,7 +14261,7 @@
       </c>
       <c r="E375" s="3"/>
       <c r="F375" s="3" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -14822,7 +14837,7 @@
         <v>1066</v>
       </c>
       <c r="F407" s="3" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -14966,7 +14981,7 @@
       </c>
       <c r="E415" s="3"/>
       <c r="F415" s="3" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -20950,7 +20965,7 @@
       </c>
       <c r="E748" s="3"/>
       <c r="F748" s="3" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="749" spans="1:6">
@@ -20968,7 +20983,7 @@
       </c>
       <c r="E749" s="3"/>
       <c r="F749" s="3" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="750" spans="1:6">
@@ -21544,15 +21559,15 @@
       </c>
       <c r="E781" s="3"/>
       <c r="F781" s="3" t="s">
-        <v>2016</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="782" spans="1:6">
       <c r="A782" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B782" s="3" t="s">
         <v>2017</v>
-      </c>
-      <c r="B782" s="3" t="s">
-        <v>2018</v>
       </c>
       <c r="C782" s="3" t="s">
         <v>6</v>
@@ -21562,15 +21577,15 @@
       </c>
       <c r="E782" s="3"/>
       <c r="F782" s="3" t="s">
-        <v>1939</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="783" spans="1:6">
       <c r="A783" s="2" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B783" s="3" t="s">
         <v>2019</v>
-      </c>
-      <c r="B783" s="3" t="s">
-        <v>2020</v>
       </c>
       <c r="C783" s="3" t="s">
         <v>6</v>
@@ -21585,10 +21600,10 @@
     </row>
     <row r="784" spans="1:6">
       <c r="A784" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B784" s="3" t="s">
         <v>2021</v>
-      </c>
-      <c r="B784" s="3" t="s">
-        <v>2022</v>
       </c>
       <c r="C784" s="3" t="s">
         <v>6</v>
@@ -21598,15 +21613,15 @@
       </c>
       <c r="E784" s="3"/>
       <c r="F784" s="3" t="s">
-        <v>2023</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="785" spans="1:6">
       <c r="A785" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B785" s="3" t="s">
         <v>2024</v>
-      </c>
-      <c r="B785" s="3" t="s">
-        <v>2025</v>
       </c>
       <c r="C785" s="3" t="s">
         <v>6</v>
@@ -21616,15 +21631,15 @@
       </c>
       <c r="E785" s="3"/>
       <c r="F785" s="3" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="786" spans="1:6">
       <c r="A786" s="2" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B786" s="3" t="s">
         <v>2027</v>
-      </c>
-      <c r="B786" s="3" t="s">
-        <v>2028</v>
       </c>
       <c r="C786" s="3" t="s">
         <v>6</v>
@@ -21634,15 +21649,15 @@
       </c>
       <c r="E786" s="3"/>
       <c r="F786" s="3" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="787" spans="1:6">
       <c r="A787" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B787" s="3" t="s">
         <v>2030</v>
-      </c>
-      <c r="B787" s="3" t="s">
-        <v>2031</v>
       </c>
       <c r="C787" s="3" t="s">
         <v>6</v>
@@ -21652,15 +21667,15 @@
       </c>
       <c r="E787" s="3"/>
       <c r="F787" s="3" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="788" spans="1:6">
       <c r="A788" s="2" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B788" s="3" t="s">
         <v>2033</v>
-      </c>
-      <c r="B788" s="3" t="s">
-        <v>2034</v>
       </c>
       <c r="C788" s="3" t="s">
         <v>6</v>
@@ -21670,15 +21685,15 @@
       </c>
       <c r="E788" s="3"/>
       <c r="F788" s="3" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="789" spans="1:6">
       <c r="A789" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B789" s="3" t="s">
         <v>2036</v>
-      </c>
-      <c r="B789" s="3" t="s">
-        <v>2037</v>
       </c>
       <c r="C789" s="3" t="s">
         <v>6</v>
@@ -21688,15 +21703,15 @@
       </c>
       <c r="E789" s="3"/>
       <c r="F789" s="3" t="s">
-        <v>2038</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="790" spans="1:6">
       <c r="A790" s="2" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="C790" s="3" t="s">
         <v>6</v>
@@ -21706,15 +21721,15 @@
       </c>
       <c r="E790" s="3"/>
       <c r="F790" s="3" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="791" spans="1:6">
       <c r="A791" s="2" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="C791" s="3" t="s">
         <v>6</v>
@@ -21724,15 +21739,15 @@
       </c>
       <c r="E791" s="3"/>
       <c r="F791" s="3" t="s">
-        <v>917</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="792" spans="1:6">
       <c r="A792" s="2" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="C792" s="3" t="s">
         <v>6</v>
@@ -21742,15 +21757,15 @@
       </c>
       <c r="E792" s="3"/>
       <c r="F792" s="3" t="s">
-        <v>917</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="793" spans="1:6">
       <c r="A793" s="2" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="C793" s="3" t="s">
         <v>6</v>
@@ -21760,15 +21775,15 @@
       </c>
       <c r="E793" s="3"/>
       <c r="F793" s="3" t="s">
-        <v>917</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="794" spans="1:6">
       <c r="A794" s="2" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="C794" s="3" t="s">
         <v>6</v>
@@ -21778,15 +21793,15 @@
       </c>
       <c r="E794" s="3"/>
       <c r="F794" s="3" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="795" spans="1:6">
       <c r="A795" s="2" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="B795" s="3" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="C795" s="3" t="s">
         <v>6</v>
@@ -21796,15 +21811,15 @@
       </c>
       <c r="E795" s="3"/>
       <c r="F795" s="3" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="796" spans="1:6">
       <c r="A796" s="2" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="C796" s="3" t="s">
         <v>6</v>
@@ -21814,15 +21829,15 @@
       </c>
       <c r="E796" s="3"/>
       <c r="F796" s="3" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="797" spans="1:6">
       <c r="A797" s="2" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="B797" s="3" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="C797" s="3" t="s">
         <v>6</v>
@@ -21832,15 +21847,15 @@
       </c>
       <c r="E797" s="3"/>
       <c r="F797" s="3" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="798" spans="1:6">
       <c r="A798" s="2" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="C798" s="3" t="s">
         <v>6</v>
@@ -21850,15 +21865,15 @@
       </c>
       <c r="E798" s="3"/>
       <c r="F798" s="3" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="799" spans="1:6">
       <c r="A799" s="2" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="B799" s="3" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="C799" s="3" t="s">
         <v>6</v>
@@ -21868,15 +21883,15 @@
       </c>
       <c r="E799" s="3"/>
       <c r="F799" s="3" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="800" spans="1:6">
       <c r="A800" s="2" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="B800" s="3" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="C800" s="3" t="s">
         <v>6</v>
@@ -21886,15 +21901,15 @@
       </c>
       <c r="E800" s="3"/>
       <c r="F800" s="3" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="801" spans="1:6">
       <c r="A801" s="2" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="B801" s="3" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="C801" s="3" t="s">
         <v>6</v>
@@ -21904,15 +21919,15 @@
       </c>
       <c r="E801" s="3"/>
       <c r="F801" s="3" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="802" spans="1:6">
       <c r="A802" s="2" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="C802" s="3" t="s">
         <v>6</v>
@@ -21922,15 +21937,15 @@
       </c>
       <c r="E802" s="3"/>
       <c r="F802" s="3" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="803" spans="1:6">
       <c r="A803" s="2" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="C803" s="3" t="s">
         <v>6</v>
@@ -21940,15 +21955,15 @@
       </c>
       <c r="E803" s="3"/>
       <c r="F803" s="3" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="804" spans="1:6">
       <c r="A804" s="2" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="C804" s="3" t="s">
         <v>6</v>
@@ -21958,15 +21973,15 @@
       </c>
       <c r="E804" s="3"/>
       <c r="F804" s="3" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="805" spans="1:6">
       <c r="A805" s="2" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="C805" s="3" t="s">
         <v>6</v>
@@ -21976,15 +21991,15 @@
       </c>
       <c r="E805" s="3"/>
       <c r="F805" s="3" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="806" spans="1:6">
       <c r="A806" s="2" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="B806" s="3" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="C806" s="3" t="s">
         <v>6</v>
@@ -21999,10 +22014,10 @@
     </row>
     <row r="807" spans="1:6">
       <c r="A807" s="2" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="C807" s="3" t="s">
         <v>6</v>
@@ -22017,10 +22032,10 @@
     </row>
     <row r="808" spans="1:6">
       <c r="A808" s="2" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="C808" s="3" t="s">
         <v>6</v>
@@ -22035,10 +22050,10 @@
     </row>
     <row r="809" spans="1:6">
       <c r="A809" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="C809" s="3" t="s">
         <v>6</v>
@@ -22048,15 +22063,15 @@
       </c>
       <c r="E809" s="3"/>
       <c r="F809" s="3" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="810" spans="1:6">
       <c r="A810" s="2" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="C810" s="3" t="s">
         <v>6</v>
@@ -22066,15 +22081,15 @@
       </c>
       <c r="E810" s="3"/>
       <c r="F810" s="3" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="811" spans="1:6">
       <c r="A811" s="2" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="C811" s="3" t="s">
         <v>6</v>
@@ -22084,15 +22099,15 @@
       </c>
       <c r="E811" s="3"/>
       <c r="F811" s="19" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="812" spans="1:6">
       <c r="A812" s="2" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="B812" s="3" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="C812" s="3" t="s">
         <v>6</v>
@@ -22102,15 +22117,15 @@
       </c>
       <c r="E812" s="3"/>
       <c r="F812" s="3" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="813" spans="1:6">
       <c r="A813" s="2" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="C813" s="3" t="s">
         <v>6</v>
@@ -22120,15 +22135,15 @@
       </c>
       <c r="E813" s="3"/>
       <c r="F813" s="3" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="814" spans="1:6">
       <c r="A814" s="2" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="B814" s="3" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="C814" s="3" t="s">
         <v>6</v>
@@ -22138,15 +22153,15 @@
       </c>
       <c r="E814" s="3"/>
       <c r="F814" s="3" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="815" spans="1:6">
       <c r="A815" s="2" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="C815" s="3" t="s">
         <v>6</v>
@@ -22156,15 +22171,15 @@
       </c>
       <c r="E815" s="3"/>
       <c r="F815" s="3" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="816" spans="1:6">
       <c r="A816" s="2" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="C816" s="3" t="s">
         <v>6</v>
@@ -22174,15 +22189,15 @@
       </c>
       <c r="E816" s="4"/>
       <c r="F816" s="4" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="817" spans="1:6">
       <c r="A817" s="2" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="C817" s="3" t="s">
         <v>6</v>
@@ -22192,15 +22207,15 @@
       </c>
       <c r="E817" s="3"/>
       <c r="F817" s="3" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="818" spans="1:6">
       <c r="A818" s="2" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="B818" s="3" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="C818" s="3" t="s">
         <v>6</v>
@@ -22210,15 +22225,15 @@
       </c>
       <c r="E818" s="3"/>
       <c r="F818" s="3" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="819" spans="1:6">
       <c r="A819" s="2" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="B819" s="3" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="C819" s="3" t="s">
         <v>6</v>
@@ -22228,15 +22243,15 @@
       </c>
       <c r="E819" s="3"/>
       <c r="F819" s="3" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="820" spans="1:6">
       <c r="A820" s="2" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="C820" s="3" t="s">
         <v>6</v>
@@ -22246,15 +22261,15 @@
       </c>
       <c r="E820" s="3"/>
       <c r="F820" s="4" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="821" spans="1:6">
       <c r="A821" s="2" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="C821" s="3" t="s">
         <v>6</v>
@@ -22269,10 +22284,10 @@
     </row>
     <row r="822" spans="1:6">
       <c r="A822" s="2" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="C822" s="3" t="s">
         <v>6</v>
@@ -22282,26 +22297,26 @@
       </c>
       <c r="E822" s="3"/>
       <c r="F822" s="3" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="823" spans="1:6">
       <c r="A823" s="21" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="B823" s="20" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="F823" s="3" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="824" spans="1:6">
       <c r="A824" s="21" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="B824" s="20" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="F824" s="3" t="s">
         <v>916</v>
@@ -22309,178 +22324,178 @@
     </row>
     <row r="825" spans="1:6">
       <c r="A825" s="21" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="B825" s="20" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="F825" s="3" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="826" spans="1:6">
       <c r="A826" s="21" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="B826" s="20" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="F826" s="3" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="827" spans="1:6">
       <c r="A827" s="21" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="B827" s="20" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="F827" s="3" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="828" spans="1:6">
       <c r="A828" s="21" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="B828" s="20" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="F828" s="3" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="829" spans="1:6">
       <c r="A829" s="21" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="B829" s="20" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="F829" s="3" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="830" spans="1:6">
       <c r="A830" s="21" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="B830" s="20" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="F830" s="3" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="831" spans="1:6">
       <c r="A831" s="21" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="B831" s="20" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="F831" s="3" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="832" spans="1:6">
       <c r="A832" s="21" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="B832" s="20" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="F832" s="3" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="833" spans="1:6">
       <c r="A833" s="21" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="B833" s="20" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="F833" s="3" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="834" spans="1:6">
       <c r="A834" s="21" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="B834" s="20" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="F834" s="3" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="835" spans="1:6">
       <c r="A835" s="21" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="B835" s="20" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="F835" s="16" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="836" spans="1:6">
       <c r="A836" s="21" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="B836" s="20" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="F836" s="16" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="837" spans="1:6">
       <c r="A837" s="21" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="B837" s="20" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="F837" s="3" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="838" spans="1:6">
       <c r="A838" s="21" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="B838" s="20" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="F838" s="3" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="839" spans="1:6">
       <c r="A839" s="23" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="B839" s="24" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="F839" s="20" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="840" spans="1:6">
       <c r="A840" s="21" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B840" s="20" t="s">
+        <v>2180</v>
+      </c>
+      <c r="F840" s="4" t="s">
         <v>2181</v>
-      </c>
-      <c r="B840" s="20" t="s">
-        <v>2182</v>
-      </c>
-      <c r="F840" s="4" t="s">
-        <v>2183</v>
       </c>
     </row>
     <row r="841" spans="1:6">
